--- a/assets/api/gaji_contoh.xlsx
+++ b/assets/api/gaji_contoh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19aea5e9cbd4d179/Desktop/slip gaji/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19aea5e9cbd4d179/Documents/GitHub/slip-gaji/assets/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{76FB8668-E950-4B57-A30F-9F7DDC7303F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AA5260AF-79E9-4165-8CF8-0DC8E27F0335}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{76FB8668-E950-4B57-A30F-9F7DDC7303F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DD0D2FB0-612D-4A7A-AF9E-09A2A6507988}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{85486373-F28A-455D-8919-CE1B83735AF0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="334">
   <si>
     <t>Alkatra Staff Office</t>
   </si>
@@ -1012,13 +1012,34 @@
   </si>
   <si>
     <t>pph21</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>hrd.alkatra@gmail.com</t>
+  </si>
+  <si>
+    <t>pt.alkatra@gmail.com</t>
+  </si>
+  <si>
+    <t>wsanjaya69@gmail.com</t>
+  </si>
+  <si>
+    <t>wisnu.sanjaya@alkatra.com</t>
+  </si>
+  <si>
+    <t>wisnu20250100002@sibermu.com</t>
+  </si>
+  <si>
+    <t>wisnu20250100002@sibermu.ac.id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1056,6 +1077,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1148,10 +1177,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1215,8 +1245,10 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1531,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D109DA83-5D44-413F-904D-33AB33FD0B83}">
   <dimension ref="A1:AE140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="E158" sqref="E158"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1563,6 +1595,7 @@
     <col min="24" max="24" width="12" style="22" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="18.5703125" style="22" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12" style="22" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1644,6 +1677,9 @@
       <c r="Z1" s="20" t="s">
         <v>182</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="AB1" s="4"/>
       <c r="AC1" s="5"/>
       <c r="AD1" s="4"/>
@@ -1716,6 +1752,9 @@
       <c r="Z2" s="22">
         <v>13850000</v>
       </c>
+      <c r="AA2" s="23" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1784,6 +1823,9 @@
       <c r="Z3" s="22">
         <v>5410961.1988000004</v>
       </c>
+      <c r="AA3" s="23" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1843,6 +1885,9 @@
       <c r="Z4" s="22">
         <v>4989600</v>
       </c>
+      <c r="AA4" s="23" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1911,6 +1956,9 @@
       <c r="Z5" s="22">
         <v>8019155</v>
       </c>
+      <c r="AA5" s="23" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1985,6 +2033,9 @@
       <c r="Z6" s="22">
         <v>32630000</v>
       </c>
+      <c r="AA6" s="23" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2118,6 +2169,9 @@
       <c r="Z8" s="22">
         <v>27750000</v>
       </c>
+      <c r="AA8" s="23" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2186,6 +2240,9 @@
       <c r="Z9" s="22">
         <v>15000000</v>
       </c>
+      <c r="AA9" s="23" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2254,6 +2311,9 @@
       <c r="Z10" s="22">
         <v>6749283.9970000004</v>
       </c>
+      <c r="AA10" s="23" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -11903,7 +11963,17 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AA10" r:id="rId1" xr:uid="{A109BFFA-A77F-4336-801B-DB4E36096250}"/>
+    <hyperlink ref="AA5" r:id="rId2" xr:uid="{A5085A76-CB6D-44A3-B771-CDEA5C05A522}"/>
+    <hyperlink ref="AA6" r:id="rId3" xr:uid="{DF3394B2-6BE0-467A-AA5E-94DDB604B72E}"/>
+    <hyperlink ref="AA9" r:id="rId4" xr:uid="{95D3DB06-E315-4AC5-B540-5666EBE399E1}"/>
+    <hyperlink ref="AA8" r:id="rId5" xr:uid="{8DBD5504-6DCA-419E-9D3F-49D23C20AD8A}"/>
+    <hyperlink ref="AA4" r:id="rId6" xr:uid="{2BB89220-6714-4DBC-86E0-5AED40140A28}"/>
+    <hyperlink ref="AA3" r:id="rId7" xr:uid="{70907A66-5973-4B87-8351-4F525E55B99E}"/>
+    <hyperlink ref="AA2" r:id="rId8" xr:uid="{208F2B27-A5DE-4788-8B70-E6251722C5AA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
--- a/assets/api/gaji_contoh.xlsx
+++ b/assets/api/gaji_contoh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19aea5e9cbd4d179/Documents/GitHub/slip-gaji/assets/api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{76FB8668-E950-4B57-A30F-9F7DDC7303F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DD0D2FB0-612D-4A7A-AF9E-09A2A6507988}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{76FB8668-E950-4B57-A30F-9F7DDC7303F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4F575E75-E410-4544-9F46-E5C51E9D48E5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{85486373-F28A-455D-8919-CE1B83735AF0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="331">
   <si>
     <t>Alkatra Staff Office</t>
   </si>
@@ -1017,19 +1017,10 @@
     <t>email</t>
   </si>
   <si>
-    <t>hrd.alkatra@gmail.com</t>
-  </si>
-  <si>
-    <t>pt.alkatra@gmail.com</t>
-  </si>
-  <si>
     <t>wsanjaya69@gmail.com</t>
   </si>
   <si>
     <t>wisnu.sanjaya@alkatra.com</t>
-  </si>
-  <si>
-    <t>wisnu20250100002@sibermu.com</t>
   </si>
   <si>
     <t>wisnu20250100002@sibermu.ac.id</t>
@@ -1563,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D109DA83-5D44-413F-904D-33AB33FD0B83}">
   <dimension ref="A1:AE140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1752,9 +1743,7 @@
       <c r="Z2" s="22">
         <v>13850000</v>
       </c>
-      <c r="AA2" s="23" t="s">
-        <v>333</v>
-      </c>
+      <c r="AA2" s="23"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1823,9 +1812,7 @@
       <c r="Z3" s="22">
         <v>5410961.1988000004</v>
       </c>
-      <c r="AA3" s="23" t="s">
-        <v>331</v>
-      </c>
+      <c r="AA3" s="23"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1886,7 +1873,7 @@
         <v>4989600</v>
       </c>
       <c r="AA4" s="23" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -1956,9 +1943,7 @@
       <c r="Z5" s="22">
         <v>8019155</v>
       </c>
-      <c r="AA5" s="23" t="s">
-        <v>328</v>
-      </c>
+      <c r="AA5" s="23"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2033,9 +2018,7 @@
       <c r="Z6" s="22">
         <v>32630000</v>
       </c>
-      <c r="AA6" s="23" t="s">
-        <v>329</v>
-      </c>
+      <c r="AA6" s="23"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2095,6 +2078,9 @@
       <c r="Z7" s="22">
         <v>3000000</v>
       </c>
+      <c r="AA7" s="23" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2169,9 +2155,7 @@
       <c r="Z8" s="22">
         <v>27750000</v>
       </c>
-      <c r="AA8" s="23" t="s">
-        <v>332</v>
-      </c>
+      <c r="AA8" s="23"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2240,9 +2224,7 @@
       <c r="Z9" s="22">
         <v>15000000</v>
       </c>
-      <c r="AA9" s="23" t="s">
-        <v>331</v>
-      </c>
+      <c r="AA9" s="23"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -11964,16 +11946,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AA10" r:id="rId1" xr:uid="{A109BFFA-A77F-4336-801B-DB4E36096250}"/>
-    <hyperlink ref="AA5" r:id="rId2" xr:uid="{A5085A76-CB6D-44A3-B771-CDEA5C05A522}"/>
-    <hyperlink ref="AA6" r:id="rId3" xr:uid="{DF3394B2-6BE0-467A-AA5E-94DDB604B72E}"/>
-    <hyperlink ref="AA9" r:id="rId4" xr:uid="{95D3DB06-E315-4AC5-B540-5666EBE399E1}"/>
-    <hyperlink ref="AA8" r:id="rId5" xr:uid="{8DBD5504-6DCA-419E-9D3F-49D23C20AD8A}"/>
-    <hyperlink ref="AA4" r:id="rId6" xr:uid="{2BB89220-6714-4DBC-86E0-5AED40140A28}"/>
-    <hyperlink ref="AA3" r:id="rId7" xr:uid="{70907A66-5973-4B87-8351-4F525E55B99E}"/>
-    <hyperlink ref="AA2" r:id="rId8" xr:uid="{208F2B27-A5DE-4788-8B70-E6251722C5AA}"/>
+    <hyperlink ref="AA4" r:id="rId1" display="wisnu20250100002@sibermu.ac.id" xr:uid="{CAD8FA4E-B81E-4327-9EB5-F18565E5830D}"/>
+    <hyperlink ref="AA10" r:id="rId2" xr:uid="{E6EE48D3-14BF-4D28-8F15-A619BF1C6769}"/>
+    <hyperlink ref="AA7" r:id="rId3" display="wisnu.sanjaya@alkatra.com" xr:uid="{F09BF557-D309-4EB7-8B9C-400D6E772863}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>